--- a/produtos_por_trimestre.xlsx
+++ b/produtos_por_trimestre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1608,376 +1608,376 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Dolor</t>
+          <t>Ad</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Dolorem</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Doloremque</t>
+          <t>Aliquam</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ea</t>
+          <t>Animi</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Eius</t>
+          <t>Autem</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Enim</t>
+          <t>Blanditiis</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Eos</t>
+          <t>Consectetur</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Exercitationem</t>
+          <t>Corporis</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Explicabo</t>
+          <t>Cumque</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Fugiat</t>
+          <t>Distinctio</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Iste</t>
+          <t>Dolor</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Iusto</t>
+          <t>Ea</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Laudantium</t>
+          <t>Eius</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Maiores</t>
+          <t>Eligendi</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Molestias</t>
+          <t>Et</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Nisi</t>
+          <t>Ipsa</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Nulla</t>
+          <t>Iure</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Occaecati</t>
+          <t>Necessitatibus</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Optio</t>
+          <t>Nesciunt</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Perferendis</t>
+          <t>Nobis</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Placeat</t>
+          <t>Non</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Praesentium</t>
+          <t>Nulla</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Provident</t>
+          <t>Optio</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Qui</t>
+          <t>Perferendis</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Quos</t>
+          <t>Placeat</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104">
@@ -1988,11 +1988,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ad</t>
+          <t>Praesentium</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
@@ -2003,11 +2003,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>Qui</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106">
@@ -2018,11 +2018,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Aliquam</t>
+          <t>Saepe</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107">
@@ -2033,11 +2033,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Animi</t>
+          <t>Sapiente</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>118</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Autem</t>
+          <t>Soluta</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2063,11 +2063,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Blanditiis</t>
+          <t>Suscipit</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110">
@@ -2078,11 +2078,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Consectetur</t>
+          <t>Temporibus</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
@@ -2093,385 +2093,10 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Corporis</t>
+          <t>Voluptatum</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Cumque</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Distinctio</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Dolor</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Ea</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Eius</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Eligendi</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Et</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Ipsa</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Iure</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Necessitatibus</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Nesciunt</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Nobis</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Nulla</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Optio</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Perferendis</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Placeat</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Praesentium</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Qui</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Saepe</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Sapiente</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Soluta</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Suscipit</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Temporibus</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Voluptatum</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
         <v>37</v>
       </c>
     </row>
